--- a/ConsoleApp1/Doc/約定履歴.xlsx
+++ b/ConsoleApp1/Doc/約定履歴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\OTDraft\OptimalTraderDraft\ConsoleApp1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61CB2B-EF92-41F1-B73E-7A93F4D50A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC27D7-1BFB-4340-AF0D-874E441B0B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3472,10 +3472,10 @@
   <dimension ref="B2:W1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3583,7 +3583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="29"/>
       <c r="C4" s="49"/>
       <c r="D4" s="30"/>
@@ -3605,7 +3605,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="35">
         <f>SUM(R5:R1002)</f>
-        <v>43115764</v>
+        <v>43387454</v>
       </c>
       <c r="S4" s="36">
         <f>SUM(S5:S1002)</f>
@@ -8361,7 +8361,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="39">
         <v>79</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="39">
         <v>80</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="39">
         <v>82</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="39">
         <v>84</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="39">
         <v>86</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="39">
         <v>87</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="39">
         <v>88</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="93" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="39">
         <v>89</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="96" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="39">
         <v>92</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="100" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="39">
         <v>96</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="102" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B102" s="39">
         <v>98</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="110" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B110" s="39">
         <v>106</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B115" s="39">
         <v>111</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B116" s="39">
         <v>112</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="118" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B118" s="39">
         <v>114</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B119" s="39">
         <v>115</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B120" s="39">
         <v>116</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B123" s="39">
         <v>119</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B126" s="39">
         <v>122</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B128" s="39">
         <v>124</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="133" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B133" s="39">
         <v>129</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="135" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B135" s="39">
         <v>131</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B136" s="39">
         <v>132</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B137" s="39">
         <v>133</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B138" s="39">
         <v>134</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="140" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B140" s="39">
         <v>136</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B141" s="39">
         <v>137</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="143" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B143" s="39">
         <v>139</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B147" s="39">
         <v>143</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B148" s="39">
         <v>144</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B149" s="39">
         <v>145</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B150" s="39">
         <v>146</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151" s="39">
         <v>147</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B153" s="39">
         <v>149</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B154" s="39">
         <v>150</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B155" s="39">
         <v>151</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B156" s="39">
         <v>152</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B157" s="39">
         <v>153</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B158" s="39">
         <v>154</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B159" s="39">
         <v>155</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B160" s="39">
         <v>156</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B161" s="39">
         <v>157</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B162" s="39">
         <v>158</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B163" s="39">
         <v>159</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B164" s="39">
         <v>160</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B165" s="39">
         <v>161</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B166" s="39">
         <v>162</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B167" s="39">
         <v>163</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B168" s="39">
         <v>164</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B169" s="39">
         <v>165</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B171" s="39">
         <v>167</v>
       </c>
@@ -13993,34 +13993,40 @@
         <f t="shared" ref="K171:K234" si="31">H171+I171+J171</f>
         <v>248200</v>
       </c>
-      <c r="L171" s="50"/>
-      <c r="M171" s="42"/>
-      <c r="N171" s="43"/>
+      <c r="L171" s="50">
+        <v>45689</v>
+      </c>
+      <c r="M171" s="42">
+        <v>100</v>
+      </c>
+      <c r="N171" s="43">
+        <v>2482</v>
+      </c>
       <c r="O171" s="44">
         <f t="shared" ref="O171:O234" si="32">M171*N171</f>
-        <v>0</v>
+        <v>248200</v>
       </c>
       <c r="P171" s="45"/>
       <c r="Q171" s="45"/>
       <c r="R171" s="44">
         <f t="shared" ref="R171:R234" si="33">O171-P171-Q171</f>
-        <v>0</v>
-      </c>
-      <c r="S171" s="44" t="str">
+        <v>248200</v>
+      </c>
+      <c r="S171" s="44">
         <f t="shared" ref="S171:S234" si="34">IF(L171&lt;&gt;"",R171-K171,"")</f>
-        <v/>
-      </c>
-      <c r="T171" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="T171" s="46">
         <f t="shared" ref="T171:T234" si="35">IF(S171&lt;&gt;"",S171/K171,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U171" s="47"/>
-      <c r="W171" s="18" t="str">
+      <c r="W171" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="172" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B172" s="39">
         <v>168</v>
       </c>
@@ -14049,34 +14055,40 @@
         <f t="shared" si="31"/>
         <v>23490</v>
       </c>
-      <c r="L172" s="50"/>
-      <c r="M172" s="42"/>
-      <c r="N172" s="43"/>
+      <c r="L172" s="50">
+        <v>45692</v>
+      </c>
+      <c r="M172" s="42">
+        <v>100</v>
+      </c>
+      <c r="N172" s="43">
+        <v>234.9</v>
+      </c>
       <c r="O172" s="44">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>23490</v>
       </c>
       <c r="P172" s="45"/>
       <c r="Q172" s="45"/>
       <c r="R172" s="44">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S172" s="44" t="str">
+        <v>23490</v>
+      </c>
+      <c r="S172" s="44">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="T172" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="T172" s="46">
         <f t="shared" si="35"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U172" s="47"/>
-      <c r="W172" s="18" t="str">
+      <c r="W172" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="173" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B173" s="39">
         <v>169</v>
       </c>
@@ -14132,7 +14144,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B174" s="39"/>
       <c r="C174" s="50"/>
       <c r="D174" s="40"/>
@@ -14176,7 +14188,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B175" s="39"/>
       <c r="C175" s="50"/>
       <c r="D175" s="40"/>
@@ -14220,7 +14232,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B176" s="39"/>
       <c r="C176" s="50"/>
       <c r="D176" s="40"/>
@@ -14264,7 +14276,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B177" s="39"/>
       <c r="C177" s="50"/>
       <c r="D177" s="40"/>
@@ -14308,7 +14320,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B178" s="39"/>
       <c r="C178" s="50"/>
       <c r="D178" s="40"/>
@@ -14352,7 +14364,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B179" s="39"/>
       <c r="C179" s="50"/>
       <c r="D179" s="40"/>
@@ -14396,7 +14408,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B180" s="39"/>
       <c r="C180" s="50"/>
       <c r="D180" s="40"/>
@@ -14440,7 +14452,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B181" s="39"/>
       <c r="C181" s="50"/>
       <c r="D181" s="40"/>
@@ -14484,7 +14496,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B182" s="39"/>
       <c r="C182" s="50"/>
       <c r="D182" s="40"/>
@@ -14528,7 +14540,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B183" s="39"/>
       <c r="C183" s="50"/>
       <c r="D183" s="40"/>
@@ -14572,7 +14584,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B184" s="39"/>
       <c r="C184" s="50"/>
       <c r="D184" s="40"/>
@@ -14616,7 +14628,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B185" s="39"/>
       <c r="C185" s="50"/>
       <c r="D185" s="40"/>
@@ -14660,7 +14672,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B186" s="39"/>
       <c r="C186" s="50"/>
       <c r="D186" s="40"/>
@@ -14704,7 +14716,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B187" s="39"/>
       <c r="C187" s="50"/>
       <c r="D187" s="40"/>
@@ -14748,7 +14760,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B188" s="39"/>
       <c r="C188" s="50"/>
       <c r="D188" s="40"/>
@@ -14792,7 +14804,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B189" s="39"/>
       <c r="C189" s="50"/>
       <c r="D189" s="40"/>
@@ -14836,7 +14848,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B190" s="39"/>
       <c r="C190" s="50"/>
       <c r="D190" s="40"/>
@@ -14880,7 +14892,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B191" s="39"/>
       <c r="C191" s="50"/>
       <c r="D191" s="40"/>
@@ -14924,7 +14936,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B192" s="39"/>
       <c r="C192" s="50"/>
       <c r="D192" s="40"/>
@@ -14968,7 +14980,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B193" s="39"/>
       <c r="C193" s="50"/>
       <c r="D193" s="40"/>
@@ -15012,7 +15024,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B194" s="39"/>
       <c r="C194" s="50"/>
       <c r="D194" s="40"/>
@@ -15056,7 +15068,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B195" s="39"/>
       <c r="C195" s="50"/>
       <c r="D195" s="40"/>
@@ -15100,7 +15112,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B196" s="39"/>
       <c r="C196" s="50"/>
       <c r="D196" s="40"/>
@@ -15144,7 +15156,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B197" s="39"/>
       <c r="C197" s="50"/>
       <c r="D197" s="40"/>
@@ -15188,7 +15200,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B198" s="39"/>
       <c r="C198" s="50"/>
       <c r="D198" s="40"/>
@@ -15232,7 +15244,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B199" s="39"/>
       <c r="C199" s="50"/>
       <c r="D199" s="40"/>
@@ -15276,7 +15288,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B200" s="39"/>
       <c r="C200" s="50"/>
       <c r="D200" s="40"/>
@@ -15320,7 +15332,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B201" s="39"/>
       <c r="C201" s="50"/>
       <c r="D201" s="40"/>
@@ -15364,7 +15376,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B202" s="39"/>
       <c r="C202" s="50"/>
       <c r="D202" s="40"/>
@@ -15408,7 +15420,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B203" s="39"/>
       <c r="C203" s="50"/>
       <c r="D203" s="40"/>
@@ -15452,7 +15464,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B204" s="39"/>
       <c r="C204" s="50"/>
       <c r="D204" s="40"/>
@@ -15496,7 +15508,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B205" s="39"/>
       <c r="C205" s="50"/>
       <c r="D205" s="40"/>
@@ -15540,7 +15552,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B206" s="39"/>
       <c r="C206" s="50"/>
       <c r="D206" s="40"/>
@@ -15584,7 +15596,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B207" s="39"/>
       <c r="C207" s="50"/>
       <c r="D207" s="40"/>
@@ -15628,7 +15640,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B208" s="39"/>
       <c r="C208" s="50"/>
       <c r="D208" s="40"/>
@@ -15672,7 +15684,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B209" s="39"/>
       <c r="C209" s="50"/>
       <c r="D209" s="40"/>
@@ -15716,7 +15728,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B210" s="39"/>
       <c r="C210" s="50"/>
       <c r="D210" s="40"/>
@@ -15760,7 +15772,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B211" s="39"/>
       <c r="C211" s="50"/>
       <c r="D211" s="40"/>
@@ -15804,7 +15816,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B212" s="39"/>
       <c r="C212" s="50"/>
       <c r="D212" s="40"/>
@@ -15848,7 +15860,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B213" s="39"/>
       <c r="C213" s="50"/>
       <c r="D213" s="40"/>
@@ -15892,7 +15904,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B214" s="39"/>
       <c r="C214" s="50"/>
       <c r="D214" s="40"/>
@@ -15936,7 +15948,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B215" s="39"/>
       <c r="C215" s="50"/>
       <c r="D215" s="40"/>
@@ -15980,7 +15992,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B216" s="39"/>
       <c r="C216" s="50"/>
       <c r="D216" s="40"/>
@@ -16024,7 +16036,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B217" s="39"/>
       <c r="C217" s="50"/>
       <c r="D217" s="40"/>
@@ -16068,7 +16080,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B218" s="39"/>
       <c r="C218" s="50"/>
       <c r="D218" s="40"/>
@@ -16112,7 +16124,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B219" s="39"/>
       <c r="C219" s="50"/>
       <c r="D219" s="40"/>
@@ -16156,7 +16168,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B220" s="39"/>
       <c r="C220" s="50"/>
       <c r="D220" s="40"/>
@@ -16200,7 +16212,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B221" s="39"/>
       <c r="C221" s="50"/>
       <c r="D221" s="40"/>
@@ -16244,7 +16256,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B222" s="39"/>
       <c r="C222" s="50"/>
       <c r="D222" s="40"/>
@@ -16288,7 +16300,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B223" s="39"/>
       <c r="C223" s="50"/>
       <c r="D223" s="40"/>
@@ -16332,7 +16344,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B224" s="39"/>
       <c r="C224" s="50"/>
       <c r="D224" s="40"/>
@@ -16376,7 +16388,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B225" s="39"/>
       <c r="C225" s="50"/>
       <c r="D225" s="40"/>
@@ -16420,7 +16432,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B226" s="39"/>
       <c r="C226" s="50"/>
       <c r="D226" s="40"/>
@@ -16464,7 +16476,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B227" s="39"/>
       <c r="C227" s="50"/>
       <c r="D227" s="40"/>
@@ -16508,7 +16520,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B228" s="39"/>
       <c r="C228" s="50"/>
       <c r="D228" s="40"/>
@@ -16552,7 +16564,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B229" s="39"/>
       <c r="C229" s="50"/>
       <c r="D229" s="40"/>
@@ -16596,7 +16608,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B230" s="39"/>
       <c r="C230" s="50"/>
       <c r="D230" s="40"/>
@@ -16640,7 +16652,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B231" s="39"/>
       <c r="C231" s="50"/>
       <c r="D231" s="40"/>
@@ -16684,7 +16696,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B232" s="39"/>
       <c r="C232" s="50"/>
       <c r="D232" s="40"/>
@@ -16728,7 +16740,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B233" s="39"/>
       <c r="C233" s="50"/>
       <c r="D233" s="40"/>
@@ -16772,7 +16784,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B234" s="39"/>
       <c r="C234" s="50"/>
       <c r="D234" s="40"/>
@@ -16816,7 +16828,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B235" s="39"/>
       <c r="C235" s="50"/>
       <c r="D235" s="40"/>
@@ -16860,7 +16872,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B236" s="39"/>
       <c r="C236" s="50"/>
       <c r="D236" s="40"/>
@@ -16904,7 +16916,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B237" s="39"/>
       <c r="C237" s="50"/>
       <c r="D237" s="40"/>
@@ -16948,7 +16960,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B238" s="39"/>
       <c r="C238" s="50"/>
       <c r="D238" s="40"/>
@@ -16992,7 +17004,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B239" s="39"/>
       <c r="C239" s="50"/>
       <c r="D239" s="40"/>
@@ -17036,7 +17048,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B240" s="39"/>
       <c r="C240" s="50"/>
       <c r="D240" s="40"/>
@@ -17080,7 +17092,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B241" s="39"/>
       <c r="C241" s="50"/>
       <c r="D241" s="40"/>
@@ -17124,7 +17136,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B242" s="39"/>
       <c r="C242" s="50"/>
       <c r="D242" s="40"/>
@@ -17168,7 +17180,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B243" s="39"/>
       <c r="C243" s="50"/>
       <c r="D243" s="40"/>
@@ -17212,7 +17224,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B244" s="39"/>
       <c r="C244" s="50"/>
       <c r="D244" s="40"/>
@@ -17256,7 +17268,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B245" s="39"/>
       <c r="C245" s="50"/>
       <c r="D245" s="40"/>
@@ -17300,7 +17312,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B246" s="39"/>
       <c r="C246" s="50"/>
       <c r="D246" s="40"/>
@@ -17344,7 +17356,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B247" s="39"/>
       <c r="C247" s="50"/>
       <c r="D247" s="40"/>
@@ -17388,7 +17400,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B248" s="39"/>
       <c r="C248" s="50"/>
       <c r="D248" s="40"/>
@@ -17432,7 +17444,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B249" s="39"/>
       <c r="C249" s="50"/>
       <c r="D249" s="40"/>
@@ -17476,7 +17488,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B250" s="39"/>
       <c r="C250" s="50"/>
       <c r="D250" s="40"/>
@@ -17520,7 +17532,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B251" s="39"/>
       <c r="C251" s="50"/>
       <c r="D251" s="40"/>
@@ -17564,7 +17576,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B252" s="39"/>
       <c r="C252" s="50"/>
       <c r="D252" s="40"/>
@@ -17608,7 +17620,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B253" s="39"/>
       <c r="C253" s="50"/>
       <c r="D253" s="40"/>
@@ -17652,7 +17664,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B254" s="39"/>
       <c r="C254" s="50"/>
       <c r="D254" s="40"/>
@@ -17696,7 +17708,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B255" s="39"/>
       <c r="C255" s="50"/>
       <c r="D255" s="40"/>
@@ -17740,7 +17752,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B256" s="39"/>
       <c r="C256" s="50"/>
       <c r="D256" s="40"/>
@@ -17784,7 +17796,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B257" s="39"/>
       <c r="C257" s="50"/>
       <c r="D257" s="40"/>
@@ -17828,7 +17840,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B258" s="39"/>
       <c r="C258" s="50"/>
       <c r="D258" s="40"/>
@@ -17872,7 +17884,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B259" s="39"/>
       <c r="C259" s="50"/>
       <c r="D259" s="40"/>
@@ -17916,7 +17928,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B260" s="39"/>
       <c r="C260" s="50"/>
       <c r="D260" s="40"/>
@@ -17960,7 +17972,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B261" s="39"/>
       <c r="C261" s="50"/>
       <c r="D261" s="40"/>
@@ -18004,7 +18016,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B262" s="39"/>
       <c r="C262" s="50"/>
       <c r="D262" s="40"/>
@@ -18048,7 +18060,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B263" s="39"/>
       <c r="C263" s="50"/>
       <c r="D263" s="40"/>
@@ -18092,7 +18104,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B264" s="39"/>
       <c r="C264" s="50"/>
       <c r="D264" s="40"/>
@@ -18136,7 +18148,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B265" s="39"/>
       <c r="C265" s="50"/>
       <c r="D265" s="40"/>
@@ -18180,7 +18192,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B266" s="39"/>
       <c r="C266" s="50"/>
       <c r="D266" s="40"/>
@@ -18224,7 +18236,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B267" s="39"/>
       <c r="C267" s="50"/>
       <c r="D267" s="40"/>
@@ -18268,7 +18280,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B268" s="39"/>
       <c r="C268" s="50"/>
       <c r="D268" s="40"/>
@@ -18312,7 +18324,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B269" s="39"/>
       <c r="C269" s="50"/>
       <c r="D269" s="40"/>
@@ -18356,7 +18368,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B270" s="39"/>
       <c r="C270" s="50"/>
       <c r="D270" s="40"/>
@@ -18400,7 +18412,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B271" s="39"/>
       <c r="C271" s="50"/>
       <c r="D271" s="40"/>
@@ -18444,7 +18456,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B272" s="39"/>
       <c r="C272" s="50"/>
       <c r="D272" s="40"/>
@@ -18488,7 +18500,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B273" s="39"/>
       <c r="C273" s="50"/>
       <c r="D273" s="40"/>
@@ -18532,7 +18544,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B274" s="39"/>
       <c r="C274" s="50"/>
       <c r="D274" s="40"/>
@@ -18576,7 +18588,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B275" s="39"/>
       <c r="C275" s="50"/>
       <c r="D275" s="40"/>
@@ -18620,7 +18632,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B276" s="39"/>
       <c r="C276" s="50"/>
       <c r="D276" s="40"/>
@@ -18664,7 +18676,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B277" s="39"/>
       <c r="C277" s="50"/>
       <c r="D277" s="40"/>
@@ -18708,7 +18720,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B278" s="39"/>
       <c r="C278" s="50"/>
       <c r="D278" s="40"/>
@@ -18752,7 +18764,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B279" s="39"/>
       <c r="C279" s="50"/>
       <c r="D279" s="40"/>
@@ -18796,7 +18808,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B280" s="39"/>
       <c r="C280" s="50"/>
       <c r="D280" s="40"/>
@@ -18840,7 +18852,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B281" s="39"/>
       <c r="C281" s="50"/>
       <c r="D281" s="40"/>
@@ -18884,7 +18896,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B282" s="39"/>
       <c r="C282" s="50"/>
       <c r="D282" s="40"/>
@@ -18928,7 +18940,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B283" s="39"/>
       <c r="C283" s="50"/>
       <c r="D283" s="40"/>
@@ -18972,7 +18984,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B284" s="39"/>
       <c r="C284" s="50"/>
       <c r="D284" s="40"/>
@@ -19016,7 +19028,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B285" s="39"/>
       <c r="C285" s="50"/>
       <c r="D285" s="40"/>
@@ -19060,7 +19072,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B286" s="39"/>
       <c r="C286" s="50"/>
       <c r="D286" s="40"/>
@@ -19104,7 +19116,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B287" s="39"/>
       <c r="C287" s="50"/>
       <c r="D287" s="40"/>
@@ -19148,7 +19160,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B288" s="39"/>
       <c r="C288" s="50"/>
       <c r="D288" s="40"/>
@@ -19192,7 +19204,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B289" s="39"/>
       <c r="C289" s="50"/>
       <c r="D289" s="40"/>
@@ -19236,7 +19248,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B290" s="39"/>
       <c r="C290" s="50"/>
       <c r="D290" s="40"/>
@@ -19280,7 +19292,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B291" s="39"/>
       <c r="C291" s="50"/>
       <c r="D291" s="40"/>
@@ -19324,7 +19336,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B292" s="39"/>
       <c r="C292" s="50"/>
       <c r="D292" s="40"/>
@@ -19368,7 +19380,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B293" s="39"/>
       <c r="C293" s="50"/>
       <c r="D293" s="40"/>
@@ -19412,7 +19424,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B294" s="39"/>
       <c r="C294" s="50"/>
       <c r="D294" s="40"/>
@@ -19456,7 +19468,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B295" s="39"/>
       <c r="C295" s="50"/>
       <c r="D295" s="40"/>
@@ -19500,7 +19512,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B296" s="39"/>
       <c r="C296" s="50"/>
       <c r="D296" s="40"/>
@@ -19544,7 +19556,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B297" s="39"/>
       <c r="C297" s="50"/>
       <c r="D297" s="40"/>
@@ -19588,7 +19600,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B298" s="39"/>
       <c r="C298" s="50"/>
       <c r="D298" s="40"/>
@@ -19632,7 +19644,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B299" s="39"/>
       <c r="C299" s="50"/>
       <c r="D299" s="40"/>
@@ -19676,7 +19688,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B300" s="39"/>
       <c r="C300" s="50"/>
       <c r="D300" s="40"/>
@@ -19720,7 +19732,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B301" s="39"/>
       <c r="C301" s="50"/>
       <c r="D301" s="40"/>
@@ -19764,7 +19776,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B302" s="39"/>
       <c r="C302" s="50"/>
       <c r="D302" s="40"/>
@@ -19808,7 +19820,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B303" s="39"/>
       <c r="C303" s="50"/>
       <c r="D303" s="40"/>
@@ -19852,7 +19864,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B304" s="39"/>
       <c r="C304" s="50"/>
       <c r="D304" s="40"/>
@@ -19896,7 +19908,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B305" s="39"/>
       <c r="C305" s="50"/>
       <c r="D305" s="40"/>
@@ -19940,7 +19952,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B306" s="39"/>
       <c r="C306" s="50"/>
       <c r="D306" s="40"/>
@@ -19984,7 +19996,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B307" s="39"/>
       <c r="C307" s="50"/>
       <c r="D307" s="40"/>
@@ -20028,7 +20040,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B308" s="39"/>
       <c r="C308" s="50"/>
       <c r="D308" s="40"/>
@@ -20072,7 +20084,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B309" s="39"/>
       <c r="C309" s="50"/>
       <c r="D309" s="40"/>
@@ -20116,7 +20128,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B310" s="39"/>
       <c r="C310" s="50"/>
       <c r="D310" s="40"/>
@@ -20160,7 +20172,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B311" s="39"/>
       <c r="C311" s="50"/>
       <c r="D311" s="40"/>
@@ -20204,7 +20216,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B312" s="39"/>
       <c r="C312" s="50"/>
       <c r="D312" s="40"/>
@@ -20248,7 +20260,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B313" s="39"/>
       <c r="C313" s="50"/>
       <c r="D313" s="40"/>
@@ -20292,7 +20304,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B314" s="39"/>
       <c r="C314" s="50"/>
       <c r="D314" s="40"/>
@@ -20336,7 +20348,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B315" s="39"/>
       <c r="C315" s="50"/>
       <c r="D315" s="40"/>
@@ -20380,7 +20392,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B316" s="39"/>
       <c r="C316" s="50"/>
       <c r="D316" s="40"/>
@@ -20424,7 +20436,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B317" s="39"/>
       <c r="C317" s="50"/>
       <c r="D317" s="40"/>
@@ -20468,7 +20480,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B318" s="39"/>
       <c r="C318" s="50"/>
       <c r="D318" s="40"/>
@@ -20512,7 +20524,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B319" s="39"/>
       <c r="C319" s="50"/>
       <c r="D319" s="40"/>
@@ -20556,7 +20568,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B320" s="39"/>
       <c r="C320" s="50"/>
       <c r="D320" s="40"/>
@@ -20600,7 +20612,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B321" s="39"/>
       <c r="C321" s="50"/>
       <c r="D321" s="40"/>
@@ -20644,7 +20656,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B322" s="39"/>
       <c r="C322" s="50"/>
       <c r="D322" s="40"/>
@@ -20688,7 +20700,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B323" s="39"/>
       <c r="C323" s="50"/>
       <c r="D323" s="40"/>
@@ -20732,7 +20744,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B324" s="39"/>
       <c r="C324" s="50"/>
       <c r="D324" s="40"/>
@@ -20776,7 +20788,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B325" s="39"/>
       <c r="C325" s="50"/>
       <c r="D325" s="40"/>
@@ -20820,7 +20832,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B326" s="39"/>
       <c r="C326" s="50"/>
       <c r="D326" s="40"/>
@@ -20864,7 +20876,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B327" s="39"/>
       <c r="C327" s="50"/>
       <c r="D327" s="40"/>
@@ -20908,7 +20920,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B328" s="39"/>
       <c r="C328" s="50"/>
       <c r="D328" s="40"/>
@@ -20952,7 +20964,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B329" s="39"/>
       <c r="C329" s="50"/>
       <c r="D329" s="40"/>
@@ -20996,7 +21008,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B330" s="39"/>
       <c r="C330" s="50"/>
       <c r="D330" s="40"/>
@@ -21040,7 +21052,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B331" s="39"/>
       <c r="C331" s="50"/>
       <c r="D331" s="40"/>
@@ -21084,7 +21096,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B332" s="39"/>
       <c r="C332" s="50"/>
       <c r="D332" s="40"/>
@@ -21128,7 +21140,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B333" s="39"/>
       <c r="C333" s="50"/>
       <c r="D333" s="40"/>
@@ -21172,7 +21184,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B334" s="39"/>
       <c r="C334" s="50"/>
       <c r="D334" s="40"/>
@@ -21216,7 +21228,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B335" s="39"/>
       <c r="C335" s="50"/>
       <c r="D335" s="40"/>
@@ -21260,7 +21272,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B336" s="39"/>
       <c r="C336" s="50"/>
       <c r="D336" s="40"/>
@@ -21304,7 +21316,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B337" s="39"/>
       <c r="C337" s="50"/>
       <c r="D337" s="40"/>
@@ -21348,7 +21360,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B338" s="39"/>
       <c r="C338" s="50"/>
       <c r="D338" s="40"/>
@@ -21392,7 +21404,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B339" s="39"/>
       <c r="C339" s="50"/>
       <c r="D339" s="40"/>
@@ -21436,7 +21448,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B340" s="39"/>
       <c r="C340" s="50"/>
       <c r="D340" s="40"/>
@@ -21480,7 +21492,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B341" s="39"/>
       <c r="C341" s="50"/>
       <c r="D341" s="40"/>
@@ -21524,7 +21536,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B342" s="39"/>
       <c r="C342" s="50"/>
       <c r="D342" s="40"/>
@@ -21568,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B343" s="39"/>
       <c r="C343" s="50"/>
       <c r="D343" s="40"/>
@@ -21612,7 +21624,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B344" s="39"/>
       <c r="C344" s="50"/>
       <c r="D344" s="40"/>
@@ -21656,7 +21668,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B345" s="39"/>
       <c r="C345" s="50"/>
       <c r="D345" s="40"/>
@@ -21700,7 +21712,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B346" s="39"/>
       <c r="C346" s="50"/>
       <c r="D346" s="40"/>
@@ -21744,7 +21756,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B347" s="39"/>
       <c r="C347" s="50"/>
       <c r="D347" s="40"/>
@@ -21788,7 +21800,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B348" s="39"/>
       <c r="C348" s="50"/>
       <c r="D348" s="40"/>
@@ -21832,7 +21844,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B349" s="39"/>
       <c r="C349" s="50"/>
       <c r="D349" s="40"/>
@@ -21876,7 +21888,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B350" s="39"/>
       <c r="C350" s="50"/>
       <c r="D350" s="40"/>
@@ -21920,7 +21932,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B351" s="39"/>
       <c r="C351" s="50"/>
       <c r="D351" s="40"/>
@@ -21964,7 +21976,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B352" s="39"/>
       <c r="C352" s="50"/>
       <c r="D352" s="40"/>
@@ -22008,7 +22020,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B353" s="39"/>
       <c r="C353" s="50"/>
       <c r="D353" s="40"/>
@@ -22052,7 +22064,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B354" s="39"/>
       <c r="C354" s="50"/>
       <c r="D354" s="40"/>
@@ -22096,7 +22108,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B355" s="39"/>
       <c r="C355" s="50"/>
       <c r="D355" s="40"/>
@@ -22140,7 +22152,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B356" s="39"/>
       <c r="C356" s="50"/>
       <c r="D356" s="40"/>
@@ -22184,7 +22196,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B357" s="39"/>
       <c r="C357" s="50"/>
       <c r="D357" s="40"/>
@@ -22228,7 +22240,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B358" s="39"/>
       <c r="C358" s="50"/>
       <c r="D358" s="40"/>
@@ -22272,7 +22284,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B359" s="39"/>
       <c r="C359" s="50"/>
       <c r="D359" s="40"/>
@@ -22316,7 +22328,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B360" s="39"/>
       <c r="C360" s="50"/>
       <c r="D360" s="40"/>
@@ -22360,7 +22372,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B361" s="39"/>
       <c r="C361" s="50"/>
       <c r="D361" s="40"/>
@@ -22404,7 +22416,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B362" s="39"/>
       <c r="C362" s="50"/>
       <c r="D362" s="40"/>
@@ -22448,7 +22460,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B363" s="39"/>
       <c r="C363" s="50"/>
       <c r="D363" s="40"/>
@@ -22492,7 +22504,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B364" s="39"/>
       <c r="C364" s="50"/>
       <c r="D364" s="40"/>
@@ -22536,7 +22548,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B365" s="39"/>
       <c r="C365" s="50"/>
       <c r="D365" s="40"/>
@@ -22580,7 +22592,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B366" s="39"/>
       <c r="C366" s="50"/>
       <c r="D366" s="40"/>
@@ -22624,7 +22636,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B367" s="39"/>
       <c r="C367" s="50"/>
       <c r="D367" s="40"/>
@@ -22668,7 +22680,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B368" s="39"/>
       <c r="C368" s="50"/>
       <c r="D368" s="40"/>
@@ -22712,7 +22724,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B369" s="39"/>
       <c r="C369" s="50"/>
       <c r="D369" s="40"/>
@@ -22756,7 +22768,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B370" s="39"/>
       <c r="C370" s="50"/>
       <c r="D370" s="40"/>
@@ -22800,7 +22812,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B371" s="39"/>
       <c r="C371" s="50"/>
       <c r="D371" s="40"/>
@@ -22844,7 +22856,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B372" s="39"/>
       <c r="C372" s="50"/>
       <c r="D372" s="40"/>
@@ -22888,7 +22900,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B373" s="39"/>
       <c r="C373" s="50"/>
       <c r="D373" s="40"/>
@@ -22932,7 +22944,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B374" s="39"/>
       <c r="C374" s="50"/>
       <c r="D374" s="40"/>
@@ -22976,7 +22988,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B375" s="39"/>
       <c r="C375" s="50"/>
       <c r="D375" s="40"/>
@@ -23020,7 +23032,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B376" s="39"/>
       <c r="C376" s="50"/>
       <c r="D376" s="40"/>
@@ -23064,7 +23076,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B377" s="39"/>
       <c r="C377" s="50"/>
       <c r="D377" s="40"/>
@@ -23108,7 +23120,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B378" s="39"/>
       <c r="C378" s="50"/>
       <c r="D378" s="40"/>
@@ -23152,7 +23164,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B379" s="39"/>
       <c r="C379" s="50"/>
       <c r="D379" s="40"/>
@@ -23196,7 +23208,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B380" s="39"/>
       <c r="C380" s="50"/>
       <c r="D380" s="40"/>
@@ -23240,7 +23252,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B381" s="39"/>
       <c r="C381" s="50"/>
       <c r="D381" s="40"/>
@@ -23284,7 +23296,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B382" s="39"/>
       <c r="C382" s="50"/>
       <c r="D382" s="40"/>
@@ -23328,7 +23340,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B383" s="39"/>
       <c r="C383" s="50"/>
       <c r="D383" s="40"/>
@@ -23372,7 +23384,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B384" s="39"/>
       <c r="C384" s="50"/>
       <c r="D384" s="40"/>
@@ -23416,7 +23428,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B385" s="39"/>
       <c r="C385" s="50"/>
       <c r="D385" s="40"/>
@@ -23460,7 +23472,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B386" s="39"/>
       <c r="C386" s="50"/>
       <c r="D386" s="40"/>
@@ -23504,7 +23516,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B387" s="39"/>
       <c r="C387" s="50"/>
       <c r="D387" s="40"/>
@@ -23548,7 +23560,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B388" s="39"/>
       <c r="C388" s="50"/>
       <c r="D388" s="40"/>
@@ -23592,7 +23604,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B389" s="39"/>
       <c r="C389" s="50"/>
       <c r="D389" s="40"/>
@@ -23636,7 +23648,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B390" s="39"/>
       <c r="C390" s="50"/>
       <c r="D390" s="40"/>
@@ -23680,7 +23692,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B391" s="39"/>
       <c r="C391" s="50"/>
       <c r="D391" s="40"/>
@@ -23724,7 +23736,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B392" s="39"/>
       <c r="C392" s="50"/>
       <c r="D392" s="40"/>
@@ -23768,7 +23780,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B393" s="39"/>
       <c r="C393" s="50"/>
       <c r="D393" s="40"/>
@@ -23812,7 +23824,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B394" s="39"/>
       <c r="C394" s="50"/>
       <c r="D394" s="40"/>
@@ -23856,7 +23868,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B395" s="39"/>
       <c r="C395" s="50"/>
       <c r="D395" s="40"/>
@@ -23900,7 +23912,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B396" s="39"/>
       <c r="C396" s="50"/>
       <c r="D396" s="40"/>
@@ -23944,7 +23956,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B397" s="39"/>
       <c r="C397" s="50"/>
       <c r="D397" s="40"/>
@@ -23988,7 +24000,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B398" s="39"/>
       <c r="C398" s="50"/>
       <c r="D398" s="40"/>
@@ -24032,7 +24044,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B399" s="39"/>
       <c r="C399" s="50"/>
       <c r="D399" s="40"/>
@@ -24076,7 +24088,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B400" s="39"/>
       <c r="C400" s="50"/>
       <c r="D400" s="40"/>
@@ -24120,7 +24132,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B401" s="39"/>
       <c r="C401" s="50"/>
       <c r="D401" s="40"/>
@@ -24164,7 +24176,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="2:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B402" s="39"/>
       <c r="C402" s="50"/>
       <c r="D402" s="40"/>
@@ -28210,10 +28222,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:W402" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="バンダイナムコホールディングス"/>
-      </filters>
+    <filterColumn colId="10">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="3">
